--- a/resob11192045.xlsx
+++ b/resob11192045.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ex\SAHS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1E0E402E-13DE-4D85-8E79-0B85DAE93E0A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3DF314D4-3C0E-46A0-A777-DB0157A4ACAF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="6600" windowHeight="9450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,8 +90,32 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,6 +125,21 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
       </patternFill>
     </fill>
   </fills>
@@ -128,13 +167,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -143,10 +191,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
+    <cellStyle name="着色 4" xfId="4" builtinId="41"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -448,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T33" sqref="T33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -522,41 +585,41 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
         <v>7652.5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>1059.5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>0.87174502179804403</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>0.69275342252244476</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>0.83766275654003408</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>0.81766216114173518</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>0.85438951588132905</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>0.68487075928917607</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="9">
         <v>0.93112303127139917</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="9">
         <v>0.73913043478260865</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="9">
         <v>0.68487075928917607</v>
       </c>
       <c r="M2" s="2">
@@ -565,72 +628,72 @@
       <c r="N2" s="2">
         <v>0.79611650485436891</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="2">
         <v>16</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="2">
         <v>21</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="2">
         <v>103</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="2">
         <v>2116</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="2">
         <v>15408</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="2">
         <v>16317</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="2">
         <v>1564</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="2">
         <v>21.14748488650622</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="2">
         <v>20.120907950268052</v>
       </c>
-      <c r="Y2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+      <c r="Y2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>8798.5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>2303.5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>0.78246545254873245</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>0.9159667465409711</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>0.68589347368033504</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>0.7929230917074469</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>0.77025647379506879</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>0.52290666153139675</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="9">
         <v>0.85235832137733147</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="9">
         <v>0.84588669416105922</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="9">
         <v>0.52290666153139675</v>
       </c>
       <c r="M3" s="2">
@@ -639,72 +702,72 @@
       <c r="N3" s="2">
         <v>0.92</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="2">
         <v>70</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="2">
         <v>20</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="2">
         <v>250</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="2">
         <v>4607</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="2">
         <v>17697</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="2">
         <v>19011</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="2">
         <v>3897</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="2">
         <v>40.333422963162143</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="2">
         <v>48.40010755579457</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Y3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
+    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>8387</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>933</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>0.85150355385456533</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>0.86874328098343034</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>0.67153574704801622</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>0.78440469372253485</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>0.88208521663699035</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>0.48683146164106528</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="9">
         <v>0.89925293489861258</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="9">
         <v>0.83378305450620616</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="9">
         <v>0.48273310098532762</v>
       </c>
       <c r="M4" s="2">
@@ -713,360 +776,359 @@
       <c r="N4" s="2">
         <v>0.89763779527559051</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="2">
         <v>43</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="2">
         <v>13</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="2">
         <v>127</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="2">
         <v>1853</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="2">
         <v>16887</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="2">
         <v>16852</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="2">
         <v>1545</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="2">
         <v>24.384</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="2">
         <v>30.143999999999998</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Y4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
+    <row r="5" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="6">
         <v>10596</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>683</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <v>0.85145605129575208</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <v>0.50313475582834855</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
         <v>0.63501668697901392</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="6">
         <v>0.78094544926605991</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="6">
         <v>0.75142191621919963</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="6">
         <v>0.50210635164605244</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="9">
         <v>0.93454850383970345</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="9">
         <v>0.51024890190336747</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="9">
         <v>0.50210635164605244</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="6">
         <v>0.56716417910447769</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="6">
         <v>0.57575757575757569</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="6">
         <v>29</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="6">
         <v>28</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="6">
         <v>66</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="6">
         <v>1366</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="6">
         <v>21292</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="6">
         <v>21175</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="6">
         <v>697</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="6">
         <v>10.48173636844891</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="6">
         <v>10.640550555849661</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
+    <row r="6" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="6">
         <v>8991</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>113</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6">
         <v>0.94281246509549876</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
         <v>0.98765432098765427</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
+      <c r="K6" s="9">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
         <v>16</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="6">
         <v>16</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="6">
         <v>208</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="6">
         <v>18098</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="6">
         <v>18080</v>
       </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
+      <c r="U6" s="6">
+        <v>0</v>
+      </c>
+      <c r="V6" s="6">
         <v>3.1447914391788601</v>
       </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="s">
+      <c r="W6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
+    <row r="7" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="6">
         <v>12081</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>629</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6">
         <v>0.82096121817749224</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <v>0.49364655436672039</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="6">
         <v>0.41137339791885641</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="6">
         <v>0.65482576969043627</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="6">
         <v>0.84375459375459383</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="6">
         <v>0.20962610089247649</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="9">
         <v>0.89285994200172425</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="9">
         <v>0.45839999999999997</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="9">
         <v>0.20962610089247649</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="6">
         <v>0.34579439252336452</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="6">
         <v>0.52112676056338025</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="6">
         <v>70</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="6">
         <v>34</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="6">
         <v>71</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="6">
         <v>1250</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="6">
         <v>24268</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="6">
         <v>22784</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="6">
         <v>573</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="6">
         <v>10.01253525540583</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="6">
         <v>15.089313694766529</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Y7" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
+    <row r="8" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="6">
         <v>9845</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
         <v>1600</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6">
         <v>0.6763607257203843</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
         <v>0.90297234941870053</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="6">
         <v>0.50057841036956241</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="6">
         <v>0.69546970385537166</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="6">
         <v>0.67247767127273095</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="6">
         <v>0.37258086738505658</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="9">
         <v>0.78262571776579082</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="9">
         <v>0.66151906712890007</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="9">
         <v>0.37150095377814518</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="6">
         <v>0.5</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="6">
         <v>0.75773195876288657</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="6">
         <v>147</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="6">
         <v>47</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="6">
         <v>194</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="6">
         <v>3173</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="6">
         <v>19815</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="6">
         <v>17991</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="6">
         <v>2099</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="6">
         <v>30.367858074615182</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="6">
         <v>46.021393164623007</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
+    <row r="9" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>7446.5</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>677.5</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>0.86437428096638125</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>0.82582860462213514</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>0.66160402511813587</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>0.77241424078331844</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>0.87977952670282322</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <v>0.52857804285778476</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="9">
         <v>0.92481341000856476</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="9">
         <v>0.80014970059880242</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="9">
         <v>0.52237296314168002</v>
       </c>
       <c r="M9" s="2">
@@ -1075,785 +1137,785 @@
       <c r="N9" s="2">
         <v>0.79661016949152541</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="2">
         <v>19</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="2">
         <v>12</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="2">
         <v>59</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="2">
         <v>1336</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="2">
         <v>15010</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="2">
         <v>15117</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="2">
         <v>1069</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="2">
         <v>12.986060161408661</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="2">
         <v>14.526779163609691</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Y9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
+    <row r="10" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="6">
         <v>10540.5</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="6">
         <v>613.5</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="6">
         <v>0.79355330404375501</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="6">
         <v>0.67056941051714669</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="6">
         <v>0.50790367136992753</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="6">
         <v>0.64042730949872873</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="6">
         <v>0.60557151836221601</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="6">
         <v>0.19693978645781041</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="9">
         <v>0.8841381772739445</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="9">
         <v>0.49796251018744908</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="9">
         <v>0.19693978645781041</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="6">
         <v>0.38043478260869568</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="6">
         <v>0.53846153846153844</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="6">
         <v>57</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="6">
         <v>30</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="6">
         <v>65</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="6">
         <v>1227</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="6">
         <v>21179</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="6">
         <v>19810</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="6">
         <v>611</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="6">
         <v>10.4389721627409</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="6">
         <v>14.775160599571731</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Y10" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
+    <row r="11" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="8">
         <v>7949</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="8">
         <v>2013</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="8">
         <v>0.79308938946080931</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="8">
         <v>0.92632560698685773</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="8">
         <v>0.71013063796926779</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="8">
         <v>0.78509785622639205</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="8">
         <v>0.84877271784949204</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="8">
         <v>0.60689503265394629</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="9">
         <v>0.84646888422734989</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="9">
         <v>0.83130131873600399</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="9">
         <v>0.60689503265394629</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="8">
         <v>0.63755458515283836</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="8">
         <v>0.94805194805194803</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="8">
         <v>83</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="8">
         <v>8</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="8">
         <v>154</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="8">
         <v>4019</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="8">
         <v>16003</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="8">
         <v>16948</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="8">
         <v>3341</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="8">
         <v>27.675718849840251</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="8">
         <v>41.154153354632577</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
+    <row r="12" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="6">
         <v>10718.5</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="6">
         <v>317.5</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="6">
         <v>0.87637286571296724</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="6">
         <v>0.40311682650392328</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="6">
         <v>0.3897271065513005</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="6">
         <v>0.64948434037816383</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="6">
         <v>0.69845860162972251</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="6">
         <v>0.22367720683127201</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="9">
         <v>0.93649075327018494</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="9">
         <v>0.40639269406392692</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="9">
         <v>0.22367720683127201</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="6">
         <v>0.36</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="6">
         <v>0.48648648648648651</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="6">
         <v>32</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="6">
         <v>19</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="6">
         <v>37</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="6">
         <v>657</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="6">
         <v>21513</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="6">
         <v>20762</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="6">
         <v>267</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="6">
         <v>6.0054102795311088</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="6">
         <v>8.11541929666366</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
+    <row r="13" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="8">
         <v>10179.5</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="8">
         <v>509.5</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="8">
         <v>0.78273333959958646</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="8">
         <v>0.82699300077110149</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="8">
         <v>0.40861203523547118</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="8">
         <v>0.67345766200926471</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="8">
         <v>0.84919816723940444</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="8">
         <v>0.25786112367515468</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="9">
         <v>0.87857342396871219</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="9">
         <v>0.78508341511285573</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="9">
         <v>0.25786112367515468</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="8">
         <v>0.4098360655737705</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="8">
         <v>0.83333333333333337</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="8">
         <v>72</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="8">
         <v>10</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="8">
         <v>60</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="8">
         <v>1019</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="8">
         <v>20459</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="8">
         <v>18870</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="8">
         <v>800</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="8">
         <v>10.05212211466865</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="8">
         <v>20.43931496649293</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
+    <row r="14" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="8">
         <v>11178.5</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="8">
         <v>813.5</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="8">
         <v>0.88333611900384423</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="8">
         <v>0.79392162570925662</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="8">
         <v>0.68545591415378859</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="8">
         <v>0.68874179705704996</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="8">
         <v>0.91202297236779994</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="8">
         <v>0.39192683641629461</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="9">
         <v>0.90204301968275058</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="9">
         <v>0.80086047940995697</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="9">
         <v>0.39192683641629461</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="8">
         <v>0.61481481481481481</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="8">
         <v>0.84693877551020402</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="8">
         <v>52</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="8">
         <v>15</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="8">
         <v>98</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="8">
         <v>1627</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="8">
         <v>22455</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="8">
         <v>21723</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="8">
         <v>1303</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="8">
         <v>14.64386518346339</v>
       </c>
-      <c r="W14">
+      <c r="W14" s="8">
         <v>20.172671426199571</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
+    <row r="15" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="6">
         <v>8115</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="6">
         <v>278</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="6">
         <v>0.85463200292932995</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="6">
         <v>0.25202148091857351</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="6">
         <v>0.30841503267973858</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="6">
         <v>0.57162694488396615</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="6">
         <v>0.85914874945151376</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="6">
         <v>0.14864537139689579</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="9">
         <v>0.92538197323226346</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="9">
         <v>0.29197080291970801</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="9">
         <v>0.14864537139689579</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="6">
         <v>0.30555555555555558</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="6">
         <v>0.35483870967741937</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="6">
         <v>25</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="6">
         <v>20</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="6">
         <v>31</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="6">
         <v>548</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="6">
         <v>16338</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="6">
         <v>15626</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="6">
         <v>160</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="6">
         <v>6.6051136363636367</v>
       </c>
-      <c r="W15">
+      <c r="W15" s="6">
         <v>7.6704545454545459</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A16" s="1">
+    <row r="16" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="6">
         <v>11770</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="6">
         <v>608</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="6">
         <v>0.73187286620061776</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="6">
         <v>0.69783095909321491</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="6">
         <v>0.3830286558519147</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="6">
         <v>0.64953512031764427</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="6">
         <v>0.75036570867933872</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="6">
         <v>0.16537594632140701</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="9">
         <v>0.82928301279472116</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="9">
         <v>0.59786184210526316</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="9">
         <v>0.16537594632140701</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="6">
         <v>0.28409090909090912</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16" s="6">
         <v>0.65789473684210531</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="6">
         <v>126</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="6">
         <v>26</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="6">
         <v>76</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="6">
         <v>1216</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="6">
         <v>23638</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="6">
         <v>20611</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="6">
         <v>727</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="6">
         <v>11.003861003860999</v>
       </c>
-      <c r="W16">
+      <c r="W16" s="6">
         <v>25.48262548262548</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A17" s="1">
+    <row r="17" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="6">
         <v>9100.5</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="6">
         <v>213.5</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="6">
         <v>0.87384888494396984</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="6">
         <v>0.38796505386295488</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="6">
         <v>0.37017875686099988</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="6">
         <v>0.56453654214979021</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="6">
         <v>0.47159090909090912</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="6">
         <v>3.360323886639676E-2</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="9">
         <v>0.9176011961977999</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="9">
         <v>0.19080459770114941</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="9">
         <v>3.360323886639676E-2</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="6">
         <v>0.2</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N17" s="6">
         <v>0.2307692307692307</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="6">
         <v>24</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="6">
         <v>20</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="6">
         <v>26</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="6">
         <v>435</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="6">
         <v>18291</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="6">
         <v>17183</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="6">
         <v>83</v>
       </c>
-      <c r="V17">
+      <c r="V17" s="6">
         <v>4.995730145175064</v>
       </c>
-      <c r="W17">
+      <c r="W17" s="6">
         <v>5.7643040136635353</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
+    <row r="18" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="7">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="8">
         <v>7897.5</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="8">
         <v>1242.5</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="8">
         <v>0.78018131742024321</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="8">
         <v>0.90766554149163181</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="8">
         <v>0.65236216586290763</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="8">
         <v>0.71151704184851994</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="8">
         <v>0.83673472229183721</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="8">
         <v>0.41876499072272261</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="9">
         <v>0.82245075633910114</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="9">
         <v>0.8101983002832861</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="9">
         <v>0.41694312837454439</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="8">
         <v>0.55601659751037347</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N18" s="8">
         <v>0.89932885906040272</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="8">
         <v>107</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="8">
         <v>15</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="8">
         <v>149</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="8">
         <v>2471</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="8">
         <v>15907</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="8">
         <v>15115</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="8">
         <v>2002</v>
       </c>
-      <c r="V18">
+      <c r="V18" s="8">
         <v>29.171198607787691</v>
       </c>
-      <c r="W18">
+      <c r="W18" s="8">
         <v>47.182945399173377</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A19" s="1">
+    <row r="19" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="7">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="8">
         <v>9522.5</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="8">
         <v>1119.5</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="8">
         <v>0.71222158218125964</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="8">
         <v>0.90362359326362829</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="8">
         <v>0.5227445562752322</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="8">
         <v>0.74714827912975146</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="8">
         <v>0.7788825757575758</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="8">
         <v>0.3653070352375774</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="9">
         <v>0.84374707698063789</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="9">
         <v>0.75480125055828495</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="9">
         <v>0.3653070352375774</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="8">
         <v>0.49753694581280777</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19" s="8">
         <v>0.83471074380165289</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="8">
         <v>102</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="8">
         <v>20</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="8">
         <v>121</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="8">
         <v>2239</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="8">
         <v>19143</v>
       </c>
-      <c r="T19">
+      <c r="T19" s="8">
         <v>18041</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="8">
         <v>1690</v>
       </c>
-      <c r="V19">
+      <c r="V19" s="8">
         <v>20.362752430815259</v>
       </c>
-      <c r="W19">
+      <c r="W19" s="8">
         <v>34.162303664921467</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
+    <row r="20" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>1461.5</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>1076.5</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>0.76215738284703805</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>0.94381513366560943</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>0.81634393671124172</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="2">
         <v>0.77123180326209162</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="2">
         <v>0.7731213538959163</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="2">
         <v>0.69214958413874639</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="9">
         <v>0.75956706609972946</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="9">
         <v>0.74676524953789281</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="9">
         <v>0.68819305351206705</v>
       </c>
       <c r="M20" s="2">
@@ -1862,140 +1924,140 @@
       <c r="N20" s="2">
         <v>0.87378640776699035</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="2">
         <v>17</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="2">
         <v>13</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="2">
         <v>103</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="2">
         <v>2164</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="2">
         <v>3010</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="2">
         <v>3930</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="2">
         <v>1616</v>
       </c>
-      <c r="V20">
+      <c r="V20" s="2">
         <v>71.527777777777786</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="2">
         <v>74.305555555555557</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A21" s="1">
+    <row r="21" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="6">
         <v>10338</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="6">
         <v>717</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="6">
         <v>0.79897754245024655</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="6">
         <v>0.61104031611771892</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="6">
         <v>0.4770723896216752</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="6">
         <v>0.69215218086476793</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="6">
         <v>0.79339746705165948</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="6">
         <v>0.29507184916404111</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="9">
         <v>0.88877881844380402</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="9">
         <v>0.59839357429718876</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="9">
         <v>0.29507184916404111</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M21" s="6">
         <v>0.41818181818181821</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N21" s="6">
         <v>0.647887323943662</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="6">
         <v>64</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="6">
         <v>25</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="6">
         <v>71</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="6">
         <v>1494</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="6">
         <v>20714</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="6">
         <v>19738</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="6">
         <v>894</v>
       </c>
-      <c r="V21">
+      <c r="V21" s="6">
         <v>11.50418579530111</v>
       </c>
-      <c r="W21">
+      <c r="W21" s="6">
         <v>17.823386443424251</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A22" s="1">
+    <row r="22" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>8585</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>2647</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>0.80463815195813027</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>0.92627765645617965</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <v>0.7287285293791409</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="2">
         <v>0.74840131028879964</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="2">
         <v>0.80727652034225139</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="2">
         <v>0.58057696427303895</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="9">
         <v>0.81749689771317147</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="9">
         <v>0.80108838431225371</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="9">
         <v>0.57934002794088302</v>
       </c>
       <c r="M22" s="2">
@@ -2004,102 +2066,102 @@
       <c r="N22" s="2">
         <v>0.85925925925925928</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="2">
         <v>74</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="2">
         <v>38</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="2">
         <v>270</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="2">
         <v>5329</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="2">
         <v>17235</v>
       </c>
-      <c r="T22">
+      <c r="T22" s="2">
         <v>18446</v>
       </c>
-      <c r="U22">
+      <c r="U22" s="2">
         <v>4269</v>
       </c>
-      <c r="V22">
+      <c r="V22" s="2">
         <v>43.058385753521748</v>
       </c>
-      <c r="W22">
+      <c r="W22" s="2">
         <v>48.799503853991318</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A23" s="1">
+    <row r="23" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="7">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="8">
         <v>6033</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="8">
         <v>1551</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="8">
         <v>0.62985769020251781</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="8">
         <v>0.88811832826551074</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="8">
         <v>0.60745167984469584</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="8">
         <v>0.79839902211264169</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="8">
         <v>0.76390492971649682</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="8">
         <v>0.53867624894167099</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="9">
         <v>0.83702345080571205</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="9">
         <v>0.72774027643844419</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="9">
         <v>0.53867624894167099</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="8">
         <v>0.63589743589743586</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N23" s="8">
         <v>0.87323943661971826</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="8">
         <v>71</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="8">
         <v>18</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="8">
         <v>142</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="8">
         <v>3111</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="8">
         <v>12155</v>
       </c>
-      <c r="T23">
+      <c r="T23" s="8">
         <v>12778</v>
       </c>
-      <c r="U23">
+      <c r="U23" s="8">
         <v>2264</v>
       </c>
-      <c r="V23">
+      <c r="V23" s="8">
         <v>33.464257659073063</v>
       </c>
-      <c r="W23">
+      <c r="W23" s="8">
         <v>45.954438334642582</v>
       </c>
     </row>
@@ -2131,13 +2193,13 @@
       <c r="I24">
         <v>0.37377143001545382</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="9">
         <v>0.87937633528796766</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="9">
         <v>0.72405383642010812</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="9">
         <v>0.37293512622973712</v>
       </c>
       <c r="M24" s="2">
